--- a/specs/output/client/GameConfig.xlsx
+++ b/specs/output/client/GameConfig.xlsx
@@ -411,7 +411,7 @@
         <v>字段ID</v>
       </c>
       <c r="B1" t="str">
-        <v>字段类型</v>
+        <v>字段类型#client</v>
       </c>
       <c r="C1" t="str">
         <v>字段名称</v>

--- a/specs/output/client/GameConfig.xlsx
+++ b/specs/output/client/GameConfig.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -411,16 +411,13 @@
         <v>字段ID</v>
       </c>
       <c r="B1" t="str">
-        <v>字段类型#client</v>
+        <v>字段类型</v>
       </c>
       <c r="C1" t="str">
         <v>字段名称</v>
       </c>
       <c r="D1" t="str">
         <v>字段值</v>
-      </c>
-      <c r="E1" t="str">
-        <v>描述</v>
       </c>
     </row>
     <row r="2">
@@ -436,9 +433,6 @@
       <c r="D2" t="str">
         <v>Value</v>
       </c>
-      <c r="E2" t="str">
-        <v>Desc</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -451,9 +445,6 @@
         <v>EConfigKey</v>
       </c>
       <c r="D3" t="str">
-        <v>string</v>
-      </c>
-      <c r="E3" t="str">
         <v>string</v>
       </c>
     </row>
@@ -470,9 +461,6 @@
       <c r="D4">
         <v>15000</v>
       </c>
-      <c r="E4" t="str">
-        <v>基础池放水金额</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -487,9 +475,6 @@
       <c r="D5">
         <v>5000</v>
       </c>
-      <c r="E5" t="str">
-        <v>基础池蓄水金额</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -504,9 +489,6 @@
       <c r="D6">
         <v>30000</v>
       </c>
-      <c r="E6" t="str">
-        <v>中级池上限</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -521,9 +503,6 @@
       <c r="D7">
         <v>300000</v>
       </c>
-      <c r="E7" t="str">
-        <v>高级池上限</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -538,9 +517,6 @@
       <c r="D8" t="str">
         <v>[5500,2500,1500]</v>
       </c>
-      <c r="E8" t="str">
-        <v>三个池子概率(万分比,池子排序由高到低)</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -555,9 +531,6 @@
       <c r="D9">
         <v>500</v>
       </c>
-      <c r="E9" t="str">
-        <v>抽水</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -572,9 +545,6 @@
       <c r="D10">
         <v>500</v>
       </c>
-      <c r="E10" t="str">
-        <v>初始金币</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -589,9 +559,6 @@
       <c r="D11" t="str">
         <v>[100,200]</v>
       </c>
-      <c r="E11" t="str">
-        <v>铁斧子随机金币</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -606,9 +573,6 @@
       <c r="D12" t="str">
         <v>[200,400]</v>
       </c>
-      <c r="E12" t="str">
-        <v>银斧子随机金币</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -623,9 +587,6 @@
       <c r="D13" t="str">
         <v>[400,800]</v>
       </c>
-      <c r="E13" t="str">
-        <v>金斧子随机金币</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -640,9 +601,6 @@
       <c r="D14">
         <v>160</v>
       </c>
-      <c r="E14" t="str">
-        <v>铁斧子玫瑰消耗</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -657,9 +615,6 @@
       <c r="D15">
         <v>300</v>
       </c>
-      <c r="E15" t="str">
-        <v>银斧子玫瑰消耗</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -674,14 +629,10 @@
       <c r="D16">
         <v>500</v>
       </c>
-      <c r="E16" t="str">
-        <v>金斧子玫瑰消耗</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:T22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D16"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/specs/output/client/GameConfig.xlsx
+++ b/specs/output/client/GameConfig.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -419,6 +419,9 @@
       <c r="D1" t="str">
         <v>字段值</v>
       </c>
+      <c r="E1" t="str">
+        <v>描述</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -433,6 +436,9 @@
       <c r="D2" t="str">
         <v>Value</v>
       </c>
+      <c r="E2" t="str">
+        <v>Desc</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -445,6 +451,9 @@
         <v>EConfigKey</v>
       </c>
       <c r="D3" t="str">
+        <v>string</v>
+      </c>
+      <c r="E3" t="str">
         <v>string</v>
       </c>
     </row>
@@ -461,6 +470,9 @@
       <c r="D4">
         <v>15000</v>
       </c>
+      <c r="E4" t="str">
+        <v>基础池放水金额</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -475,6 +487,9 @@
       <c r="D5">
         <v>5000</v>
       </c>
+      <c r="E5" t="str">
+        <v>基础池蓄水金额</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -489,6 +504,9 @@
       <c r="D6">
         <v>30000</v>
       </c>
+      <c r="E6" t="str">
+        <v>中级池上限</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -503,6 +521,9 @@
       <c r="D7">
         <v>300000</v>
       </c>
+      <c r="E7" t="str">
+        <v>高级池上限</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -517,6 +538,9 @@
       <c r="D8" t="str">
         <v>[5500,2500,1500]</v>
       </c>
+      <c r="E8" t="str">
+        <v>三个池子概率(万分比,池子排序由高到低)</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -531,6 +555,9 @@
       <c r="D9">
         <v>500</v>
       </c>
+      <c r="E9" t="str">
+        <v>抽水</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -545,6 +572,9 @@
       <c r="D10">
         <v>500</v>
       </c>
+      <c r="E10" t="str">
+        <v>初始金币</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -559,6 +589,9 @@
       <c r="D11" t="str">
         <v>[100,200]</v>
       </c>
+      <c r="E11" t="str">
+        <v>铁斧子随机金币</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -573,6 +606,9 @@
       <c r="D12" t="str">
         <v>[200,400]</v>
       </c>
+      <c r="E12" t="str">
+        <v>银斧子随机金币</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -587,6 +623,9 @@
       <c r="D13" t="str">
         <v>[400,800]</v>
       </c>
+      <c r="E13" t="str">
+        <v>金斧子随机金币</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -601,6 +640,9 @@
       <c r="D14">
         <v>160</v>
       </c>
+      <c r="E14" t="str">
+        <v>铁斧子玫瑰消耗</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -615,6 +657,9 @@
       <c r="D15">
         <v>300</v>
       </c>
+      <c r="E15" t="str">
+        <v>银斧子玫瑰消耗</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -629,10 +674,14 @@
       <c r="D16">
         <v>500</v>
       </c>
+      <c r="E16" t="str">
+        <v>金斧子玫瑰消耗</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:T22"/>
   </ignoredErrors>
 </worksheet>
 </file>